--- a/src/main/resources/productionOrder.xlsx
+++ b/src/main/resources/productionOrder.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="链接单" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="151">
   <si>
     <t>客户名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>变更时间1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人数（男）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,10 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>变更内容1+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>号型标准（男）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,335 +265,363 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${po.customerName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品名${s.index+1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.brand}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.styleNumberMale}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.sizeStandardsMale}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.sizeStandardsFemale}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.styleNumberFemale}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.handleMethod}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.sampleStyleNumber}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.sampleRevisionDesc}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.sampleStyle}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.sampleProvider}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.materialReserve}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.measureStaff}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.archiveStaff}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.finishDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.measureSampleVersion}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.materialSpecialReq}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.packingReq}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.otherReq}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.peopleNumberMale*1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.peopleNumberFemale*1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.amountMale*1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.availableMale*1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.amountFemale*1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.availableFemale*1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.style}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${po.packagingReq}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${po.packingReq}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${po.sizebeltReq}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${po.companylogoReq}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${po.productionParts}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${po.checkReport}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${po.remark}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${po.assistant}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${po.orderPrincipal}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${po.regionalManager}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${po.salesDirectorAssistant}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${po.salesDirector}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${po.fillDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${po.supplyPrincipal}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${po.techniqueDirector}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${po.factoryDirector}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.lining.material}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.lining.handle}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.main.material}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.main.handle}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面料镶色${s1.index+1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${os.material}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${os.handle}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里料拼色${s2.index+1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ls.material}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${b.material}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ls.handle}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${b.handle}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[B23+D23]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[B24-D24]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[B25-D25]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[B24+B25]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[F24+F25]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.main.colorName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${os.colorName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.lining.colorName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ls.colorName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${b.colorName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.main.style}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${os.style}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.lining.style}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ls.style}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${b.style}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.sampleAmount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${pd.outShell}" var="os" varStatus="s1"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${pd.liningSet}" var="ls" varStatus="s2"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${pd.bagging}" var="b" varStatus="s3"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${po.productions}" var="pd" varStatus="s"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${po.changeInfo}" var="change" varStatus="s"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袋布${s3.index+1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更内容${s.index+1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${po.planManager}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${change.content}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${change.time}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${po.contractDeliveryDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${po.customerName}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品名${s.index+1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.brand}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.styleNumberMale}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.sizeStandardsMale}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.sizeStandardsFemale}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.styleNumberFemale}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.handleMethod}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.sampleStyleNumber}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.sampleAmount*1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.sampleRevisionDesc}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.sampleStyle}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.sampleProvider}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.materialReserve}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.measureStaff}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.archiveStaff}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.finishDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.measureSampleVersion}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.materialSpecialReq}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.packingReq}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.otherReq}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.peopleNumberMale*1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.peopleNumberFemale*1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.amountMale*1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.availableMale*1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.amountFemale*1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.availableFemale*1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.style}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${po.packagingReq}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${po.packingReq}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${po.sizebeltReq}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${po.companylogoReq}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${po.productionParts}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${po.checkReport}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${po.remark}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${po.assistant}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${po.orderPrincipal}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${po.regionalManager}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${po.salesDirectorAssistant}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${po.salesDirector}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${po.fillDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${po.planManager}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${po.supplyPrincipal}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${po.techniqueDirector}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${po.factoryDirector}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.lining.material}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.lining.handle}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${po.productions}" var="pd" varStatus="s"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.main.material}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.main.handle}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;/jx:forEach&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${pd.outShell}" var="os" varStatus="s1"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面料镶色${s1.index+1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${os.material}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${os.handle}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;/jx:forEach&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${pd.liningSet}" var="ls" varStatus="s2"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${pd.bagging}" var="b" varStatus="s3"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里料拼色${s2.index+1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袋布${s3.index+1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ls.material}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${b.material}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ls.handle}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${b.handle}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;/jx:forEach&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;/jx:forEach&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[B23+D23]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[B24-D24]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[B25-D25]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[B24+B25]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[F24+F25]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.main.colorName}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${os.colorName}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.lining.colorName}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ls.colorName}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${b.colorName}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.main.style}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${os.style}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${pd.lining.style}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ls.style}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${b.style}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +629,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,6 +668,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -658,7 +701,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -690,13 +733,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,9 +816,20 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -790,7 +887,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -825,7 +922,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1034,28 +1131,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.33203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="13.375" style="1"/>
+    <col min="8" max="8" width="25" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="26.25" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1070,30 +1167,30 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1105,16 +1202,16 @@
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="27.75" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1126,13 +1223,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -1144,13 +1241,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1162,13 +1259,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -1177,28 +1274,28 @@
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
@@ -1206,13 +1303,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1221,59 +1318,59 @@
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1285,33 +1382,33 @@
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1323,33 +1420,33 @@
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="F15" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1361,33 +1458,33 @@
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1399,7 +1496,7 @@
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1411,33 +1508,33 @@
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1449,103 +1546,103 @@
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="F22" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="D23" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1560,25 +1657,25 @@
         <v>14</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="H27" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" ht="24" customHeight="1">
@@ -1586,19 +1683,19 @@
         <v>16</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -1608,25 +1705,25 @@
         <v>20</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
@@ -1634,13 +1731,13 @@
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -1652,56 +1749,94 @@
         <v>25</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" ht="72" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="76.5" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+    <row r="33" spans="1:8" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A34" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" ht="76.5" customHeight="1">
+      <c r="A35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B33:F33"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>